--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.9176067954411</v>
+        <v>25654.60375229284</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128.9176067954411</v>
+        <v>25654.60375229284</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60886.90449138403</v>
+        <v>4430356.178281818</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60886.90449138403</v>
+        <v>4430356.178281818</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609783343.475668</v>
+        <v>62052399.92728604</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14644.31993593642</v>
+        <v>1424186.758180938</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28700.06476766726</v>
+        <v>2746532.650530162</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42755.80959939808</v>
+        <v>4068878.542879387</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59591.72785972129</v>
+        <v>5174054.262062766</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75128.40723285364</v>
+        <v>6415787.465281053</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90665.08660598601</v>
+        <v>7657520.668499331</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106205.210209635</v>
+        <v>8899339.546951709</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121730.2162888779</v>
+        <v>10142237.0837559</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138564.5530165187</v>
+        <v>11247130.67929306</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154084.8823637565</v>
+        <v>12490028.21609725</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169605.2117109943</v>
+        <v>13732925.75290144</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185125.5410582321</v>
+        <v>14975823.28970565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200660.5574010615</v>
+        <v>16217556.49292394</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216982.1002505122</v>
+        <v>17374389.05392538</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236974.3917029894</v>
+        <v>18076137.82346444</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,10 +27052,10 @@
         <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1372</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
